--- a/training/output/LRSADTLM/P/P0_P1.xlsx
+++ b/training/output/LRSADTLM/P/P0_P1.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9067982456140351</v>
+        <v>0.9396929824561403</v>
       </c>
       <c r="B2" t="n">
-        <v>1.605837686020031</v>
+        <v>1.568070062419824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="B3" t="n">
-        <v>1.486369816880477</v>
+        <v>1.478161834833915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9660087719298246</v>
       </c>
       <c r="B4" t="n">
-        <v>1.453510098290025</v>
+        <v>1.451575431907386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9616228070175439</v>
       </c>
       <c r="B5" t="n">
-        <v>1.420672176177042</v>
+        <v>1.426273622010884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9692982456140351</v>
       </c>
       <c r="B6" t="n">
-        <v>1.423390838137844</v>
+        <v>1.423779836872168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9703947368421053</v>
       </c>
       <c r="B7" t="n">
-        <v>1.416779898760612</v>
+        <v>1.420465831171002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9714912280701754</v>
       </c>
       <c r="B8" t="n">
-        <v>1.429186429893761</v>
+        <v>1.432082816174156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9747807017543859</v>
       </c>
       <c r="B9" t="n">
-        <v>1.417339636568438</v>
+        <v>1.42039049926557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9747807017543859</v>
       </c>
       <c r="B10" t="n">
-        <v>1.404699852592067</v>
+        <v>1.406295876753958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9671052631578947</v>
       </c>
       <c r="B11" t="n">
-        <v>1.424403673724124</v>
+        <v>1.42955425956793</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B12" t="n">
-        <v>1.408341418232834</v>
+        <v>1.406622878292151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.956140350877193</v>
+        <v>0.981359649122807</v>
       </c>
       <c r="B13" t="n">
-        <v>1.410051266352336</v>
+        <v>1.408949207841304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9517543859649122</v>
+        <v>0.9725877192982456</v>
       </c>
       <c r="B14" t="n">
-        <v>1.425729329125923</v>
+        <v>1.413208085193969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9758771929824561</v>
       </c>
       <c r="B15" t="n">
-        <v>1.409080957111559</v>
+        <v>1.399766717040748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9725877192982456</v>
       </c>
       <c r="B16" t="n">
-        <v>1.406910469657496</v>
+        <v>1.407063038725602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B17" t="n">
-        <v>1.39719079251875</v>
+        <v>1.398508069808023</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9714912280701754</v>
       </c>
       <c r="B18" t="n">
-        <v>1.399213234583537</v>
+        <v>1.397737471680892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9725877192982456</v>
       </c>
       <c r="B19" t="n">
-        <v>1.39936868140572</v>
+        <v>1.40161397164328</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9703947368421053</v>
       </c>
       <c r="B20" t="n">
-        <v>1.46328193890421</v>
+        <v>1.457699449438798</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9517543859649122</v>
+        <v>0.9572368421052632</v>
       </c>
       <c r="B21" t="n">
-        <v>1.414293801575376</v>
+        <v>1.426384888197246</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9692982456140351</v>
       </c>
       <c r="B22" t="n">
-        <v>1.414491810296711</v>
+        <v>1.408300238743163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9495614035087719</v>
       </c>
       <c r="B23" t="n">
-        <v>1.392620605334901</v>
+        <v>1.396913570270204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="B24" t="n">
-        <v>1.403212762715524</v>
+        <v>1.399081058669509</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9429824561403509</v>
+        <v>0.9539473684210527</v>
       </c>
       <c r="B25" t="n">
-        <v>1.40308784183703</v>
+        <v>1.402812869925248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9484649122807017</v>
+        <v>0.9572368421052632</v>
       </c>
       <c r="B26" t="n">
-        <v>1.395345008164121</v>
+        <v>1.398171487607454</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9682017543859649</v>
       </c>
       <c r="B27" t="n">
-        <v>1.395343071536014</v>
+        <v>1.396436503058986</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9671052631578947</v>
       </c>
       <c r="B28" t="n">
-        <v>1.396020521197403</v>
+        <v>1.403260988101625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9671052631578947</v>
       </c>
       <c r="B29" t="n">
-        <v>1.392462090442055</v>
+        <v>1.393997713139183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9660087719298246</v>
       </c>
       <c r="B30" t="n">
-        <v>1.399047763724076</v>
+        <v>1.403063134143227</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9692982456140351</v>
       </c>
       <c r="B31" t="n">
-        <v>1.397323418081852</v>
+        <v>1.395147733521043</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9682017543859649</v>
       </c>
       <c r="B32" t="n">
-        <v>1.403035027938977</v>
+        <v>1.397495535382053</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9320175438596491</v>
+        <v>0.9396929824561403</v>
       </c>
       <c r="B33" t="n">
-        <v>1.402975182784231</v>
+        <v>1.397703294168439</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9429824561403509</v>
+        <v>0.9627192982456141</v>
       </c>
       <c r="B34" t="n">
-        <v>1.407759666442871</v>
+        <v>1.406306593041671</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9671052631578947</v>
       </c>
       <c r="B35" t="n">
-        <v>1.422435398687396</v>
+        <v>1.406999213653698</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.944078947368421</v>
+        <v>0.9671052631578947</v>
       </c>
       <c r="B36" t="n">
-        <v>1.402755739396079</v>
+        <v>1.394192653789855</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9703947368421053</v>
       </c>
       <c r="B37" t="n">
-        <v>1.394371873454044</v>
+        <v>1.410915084052504</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9682017543859649</v>
       </c>
       <c r="B38" t="n">
-        <v>1.392116435787134</v>
+        <v>1.394341188564635</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9714912280701754</v>
       </c>
       <c r="B39" t="n">
-        <v>1.391727907615796</v>
+        <v>1.392807205518087</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9714912280701754</v>
       </c>
       <c r="B40" t="n">
-        <v>1.392858201997322</v>
+        <v>1.391659038108692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9375</v>
+        <v>0.9703947368421053</v>
       </c>
       <c r="B41" t="n">
-        <v>1.389802780067712</v>
+        <v>1.389221030369139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9462719298245614</v>
+        <v>0.9703947368421053</v>
       </c>
       <c r="B42" t="n">
-        <v>1.390698378546196</v>
+        <v>1.390564199079547</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9462719298245614</v>
+        <v>0.9671052631578947</v>
       </c>
       <c r="B43" t="n">
-        <v>1.39078584470247</v>
+        <v>1.390816801472714</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9462719298245614</v>
+        <v>0.9671052631578947</v>
       </c>
       <c r="B44" t="n">
-        <v>1.392099790405809</v>
+        <v>1.390509182946724</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9758771929824561</v>
       </c>
       <c r="B45" t="n">
-        <v>1.390171624066537</v>
+        <v>1.389388046766582</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9758771929824561</v>
       </c>
       <c r="B46" t="n">
-        <v>1.390416421388325</v>
+        <v>1.389793502657037</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9769736842105263</v>
       </c>
       <c r="B47" t="n">
-        <v>1.395946958608795</v>
+        <v>1.392359585092779</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9769736842105263</v>
       </c>
       <c r="B48" t="n">
-        <v>1.390378843274033</v>
+        <v>1.393161583365055</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9747807017543859</v>
       </c>
       <c r="B49" t="n">
-        <v>1.390654662199188</v>
+        <v>1.390479123383238</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9725877192982456</v>
       </c>
       <c r="B50" t="n">
-        <v>1.389865454874541</v>
+        <v>1.38966589434105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B51" t="n">
-        <v>1.392373988502904</v>
+        <v>1.39078146114684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9758771929824561</v>
       </c>
       <c r="B52" t="n">
-        <v>1.402690372968975</v>
+        <v>1.397847470484282</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9418859649122807</v>
       </c>
       <c r="B53" t="n">
-        <v>1.393768067945514</v>
+        <v>1.394783381830182</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9462719298245614</v>
+        <v>0.9638157894736842</v>
       </c>
       <c r="B54" t="n">
-        <v>1.398433319309301</v>
+        <v>1.40297149775321</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9462719298245614</v>
+        <v>0.9703947368421053</v>
       </c>
       <c r="B55" t="n">
-        <v>1.402277505188658</v>
+        <v>1.405599004343936</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9517543859649122</v>
+        <v>0.9572368421052632</v>
       </c>
       <c r="B56" t="n">
-        <v>1.402541522394147</v>
+        <v>1.410233052153336</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9495614035087719</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="B57" t="n">
-        <v>1.39108179326643</v>
+        <v>1.394650304526613</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9517543859649122</v>
+        <v>0.9714912280701754</v>
       </c>
       <c r="B58" t="n">
-        <v>1.39143473223636</v>
+        <v>1.394455253032216</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9682017543859649</v>
       </c>
       <c r="B59" t="n">
-        <v>1.391197344713044</v>
+        <v>1.39281720027589</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9692982456140351</v>
       </c>
       <c r="B60" t="n">
-        <v>1.427122810430694</v>
+        <v>1.433974176122431</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9616228070175439</v>
       </c>
       <c r="B61" t="n">
-        <v>1.39234569407346</v>
+        <v>1.39340531198602</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9714912280701754</v>
       </c>
       <c r="B62" t="n">
-        <v>1.404797493365773</v>
+        <v>1.392558231688382</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9660087719298246</v>
       </c>
       <c r="B63" t="n">
-        <v>1.397229713306092</v>
+        <v>1.39258070786794</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9660087719298246</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390693980350829</v>
+        <v>1.389283997970715</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="B65" t="n">
-        <v>1.398415624049672</v>
+        <v>1.395840561180784</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9714912280701754</v>
       </c>
       <c r="B66" t="n">
-        <v>1.410512165019387</v>
+        <v>1.405835312709474</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9451754385964912</v>
+        <v>0.9572368421052632</v>
       </c>
       <c r="B67" t="n">
-        <v>1.39280170725103</v>
+        <v>1.3913324799454</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9451754385964912</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="B68" t="n">
-        <v>1.390309708160266</v>
+        <v>1.389716263402972</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9627192982456141</v>
       </c>
       <c r="B69" t="n">
-        <v>1.389937327619184</v>
+        <v>1.389144677864878</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9627192982456141</v>
       </c>
       <c r="B70" t="n">
-        <v>1.389823620779473</v>
+        <v>1.389201007391277</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9627192982456141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.415212453457347</v>
+        <v>1.411089872059069</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9616228070175439</v>
       </c>
       <c r="B72" t="n">
-        <v>1.393483287409732</v>
+        <v>1.393746451327675</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9638157894736842</v>
       </c>
       <c r="B73" t="n">
-        <v>1.439860210084078</v>
+        <v>1.456600398348089</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9517543859649122</v>
       </c>
       <c r="B74" t="n">
-        <v>1.42276444351464</v>
+        <v>1.392974629736783</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B75" t="n">
-        <v>1.405580631473608</v>
+        <v>1.396119943836279</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9572368421052632</v>
       </c>
       <c r="B76" t="n">
-        <v>1.394512506953457</v>
+        <v>1.392227379899276</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9627192982456141</v>
       </c>
       <c r="B77" t="n">
-        <v>1.391353883241352</v>
+        <v>1.395847149062575</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B78" t="n">
-        <v>1.401846714187087</v>
+        <v>1.403236725874115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39214399195554</v>
+        <v>1.391378551198725</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B80" t="n">
-        <v>1.390800967551114</v>
+        <v>1.391280680372004</v>
       </c>
     </row>
     <row r="81">
@@ -1082,167 +1082,167 @@
         <v>0.9539473684210527</v>
       </c>
       <c r="B81" t="n">
-        <v>1.426057545762313</v>
+        <v>1.425486746587251</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9451754385964912</v>
+        <v>0.9638157894736842</v>
       </c>
       <c r="B82" t="n">
-        <v>1.397389114948741</v>
+        <v>1.39570603245183</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9682017543859649</v>
       </c>
       <c r="B83" t="n">
-        <v>1.391729342310052</v>
+        <v>1.390622015584979</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="B84" t="n">
-        <v>1.407395289655317</v>
+        <v>1.416583931236936</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9484649122807017</v>
       </c>
       <c r="B85" t="n">
-        <v>1.390854212275723</v>
+        <v>1.389690392895749</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="B86" t="n">
-        <v>1.408162265493159</v>
+        <v>1.399736820605763</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9692982456140351</v>
       </c>
       <c r="B87" t="n">
-        <v>1.393603747351128</v>
+        <v>1.391674823928298</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9627192982456141</v>
       </c>
       <c r="B88" t="n">
-        <v>1.46218544767614</v>
+        <v>1.439865722990873</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.944078947368421</v>
+        <v>0.9407894736842105</v>
       </c>
       <c r="B89" t="n">
-        <v>1.398104169912506</v>
+        <v>1.392542544164156</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>1.401971440566214</v>
+        <v>1.398378278079786</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="B91" t="n">
-        <v>1.39894646092465</v>
+        <v>1.391289422386571</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.9594298245614035</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389734544252095</v>
+        <v>1.38860293229421</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="B93" t="n">
-        <v>1.392718003507246</v>
+        <v>1.389501013253865</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9594298245614035</v>
       </c>
       <c r="B94" t="n">
-        <v>1.38983987088789</v>
+        <v>1.38856980256867</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9616228070175439</v>
       </c>
       <c r="B95" t="n">
-        <v>1.392825193572463</v>
+        <v>1.400110663029186</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>1.388586519057291</v>
+        <v>1.39035625625075</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9671052631578947</v>
       </c>
       <c r="B97" t="n">
-        <v>1.410474059874551</v>
+        <v>1.40162556213245</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9769736842105263</v>
       </c>
       <c r="B98" t="n">
-        <v>1.401374852448179</v>
+        <v>1.401670004192151</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9418859649122807</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="B99" t="n">
-        <v>1.400780200958252</v>
+        <v>1.399224099360014</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9495614035087719</v>
+        <v>0.9703947368421053</v>
       </c>
       <c r="B100" t="n">
-        <v>1.416664642200135</v>
+        <v>1.412380408822445</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9594298245614035</v>
       </c>
       <c r="B101" t="n">
-        <v>1.389111163323386</v>
+        <v>1.398815391356485</v>
       </c>
     </row>
   </sheetData>
